--- a/podatki/lastniki.xlsx
+++ b/podatki/lastniki.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7adbb6c384f685/Dokumenti/opb/NBA/podatki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\OneDrive\Dokumenti\opb\NBA\podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>Franchise</t>
   </si>
@@ -260,12 +260,6 @@
     <t>$2B</t>
   </si>
   <si>
-    <t>$20M &amp; $268M</t>
-  </si>
-  <si>
-    <t>1979 &amp; 1998</t>
-  </si>
-  <si>
     <t>$377M</t>
   </si>
   <si>
@@ -399,6 +393,102 @@
   </si>
   <si>
     <t> Jeanie Buss,   Jim Buss, Johnny Buss,</t>
+  </si>
+  <si>
+    <t>$268M</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>WAS</t>
   </si>
 </sst>
 </file>
@@ -717,543 +807,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="219.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="219.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E10">
+      <c r="F22">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24">
         <v>2011</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="E24">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F26">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="E29">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31">
+      <c r="F31">
         <v>2010</v>
       </c>
     </row>
